--- a/FinalProject/Data/CourseCatalog.xlsx
+++ b/FinalProject/Data/CourseCatalog.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bchin\Documents\GitHub\CSCI261\FinalProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD3F73A-4A53-419A-8E9F-3E02907EA059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{23121512-51FA-4C7E-B22D-817C0F09096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FA8E942-EB22-4420-9D7F-F966D37ABBD0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CourseCatalog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,12 +36,375 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="123">
   <si>
     <t>MEGN</t>
   </si>
   <si>
-    <t>Null</t>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>CourseID</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO MECHANICAL ENGINEERING: PROGRAMMING AND HARDWARE INTERFACE</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO MECHANICAL ENGINEERING: DESIGN &amp; FABRICATION</t>
+  </si>
+  <si>
+    <t>INSTRUMENTATION &amp; AUTOMATION</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO SOLID MECHANICS</t>
+  </si>
+  <si>
+    <t>MECHANICAL INTEGRATION &amp; DESIGN</t>
+  </si>
+  <si>
+    <t>DYNAMICS</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO FINITE ELEMENT ANALYSIS</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO BIOMECHANICAL ENGINEERING</t>
+  </si>
+  <si>
+    <t>COOPERATIVE EDUCATION</t>
+  </si>
+  <si>
+    <t>FLUID MECHANICS</t>
+  </si>
+  <si>
+    <t>THERMODYNAMICS I</t>
+  </si>
+  <si>
+    <t>MANUFACTURING PROCESSES</t>
+  </si>
+  <si>
+    <t>AUTOMOTIVE DESIGN: SAE COLLEGIATE DESIGN SERIES (FORMULA SAE)</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO SPACE EXPLORATION</t>
+  </si>
+  <si>
+    <t>ADVANCED MECHANICS OF MATERIALS</t>
+  </si>
+  <si>
+    <t>MECHANICS OF COMPOSITE MATERIALS</t>
+  </si>
+  <si>
+    <t>ENGINEERING VIBRATION</t>
+  </si>
+  <si>
+    <t>VEHICLE DYNAMICS &amp; POWERTRAIN SYSTEMS</t>
+  </si>
+  <si>
+    <t>MUSCULOSKELETAL BIOMECHANICS</t>
+  </si>
+  <si>
+    <t>MODELING AND SIMULATION OF HUMAN MOVEMENT</t>
+  </si>
+  <si>
+    <t>COMPUTATIONAL BIOMECHANICS</t>
+  </si>
+  <si>
+    <t> INTRODUCTION TO ROBOTICS</t>
+  </si>
+  <si>
+    <t>FLUID MECHANICS II - AERODYNAMICS</t>
+  </si>
+  <si>
+    <t>AEROSPACE STRUCTURES</t>
+  </si>
+  <si>
+    <t>THERMODYNAMICS II</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF BUILDING SCIENCE</t>
+  </si>
+  <si>
+    <t>FUEL CELL SCIENCE AND TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>HEAT TRANSFER</t>
+  </si>
+  <si>
+    <t>MACHINE DESIGN</t>
+  </si>
+  <si>
+    <t>LINEAR OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>NONLINEAR OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>INTEGER OPTIMIZATION</t>
+  </si>
+  <si>
+    <t>CHGN</t>
+  </si>
+  <si>
+    <t>CSM</t>
+  </si>
+  <si>
+    <t>HASS</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF CHEMISTRY I</t>
+  </si>
+  <si>
+    <t>FRESHMAN SUCCESS SEMINAR</t>
+  </si>
+  <si>
+    <t>NATURE AND HUMAN VALUES</t>
+  </si>
+  <si>
+    <t>CALCULUS FOR SCIENTISTS AND ENGINEERS I</t>
+  </si>
+  <si>
+    <t>DESIGN I</t>
+  </si>
+  <si>
+    <t>PAGN</t>
+  </si>
+  <si>
+    <t>CSCI</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF CHEMISTRY II (SC1)</t>
+  </si>
+  <si>
+    <t>CALCULUS FOR SCIENTISTS AND ENGINEERS II</t>
+  </si>
+  <si>
+    <t>PHYSICS I - MECHANICS</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO COMPUTER SCIENCE</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO COMPUTER SCIENCE - LAB</t>
+  </si>
+  <si>
+    <t>CEEN</t>
+  </si>
+  <si>
+    <t>PHYSICS II-ELECTROMAGNETISM AND OPTICS</t>
+  </si>
+  <si>
+    <t>CALCULUS FOR SCIENTISTS AND ENGINEERS III</t>
+  </si>
+  <si>
+    <t>GLOBAL STUDIES</t>
+  </si>
+  <si>
+    <t>STATICS</t>
+  </si>
+  <si>
+    <t>EENG</t>
+  </si>
+  <si>
+    <t>MTGN</t>
+  </si>
+  <si>
+    <t>DIFFERENTIAL EQUATIONS</t>
+  </si>
+  <si>
+    <t>ENGINEERED MATERIALS</t>
+  </si>
+  <si>
+    <t>EBGN</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF ECONOMICS</t>
+  </si>
+  <si>
+    <t>EDNS</t>
+  </si>
+  <si>
+    <t>SENIOR DESIGN I</t>
+  </si>
+  <si>
+    <t>SENIOR DESIGN II</t>
+  </si>
+  <si>
+    <t>PHGN</t>
+  </si>
+  <si>
+    <t>EEGN</t>
+  </si>
+  <si>
+    <t>2XX</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>FREE</t>
+  </si>
+  <si>
+    <t>4XX</t>
+  </si>
+  <si>
+    <t>MOLECULAR ENGINEERING &amp; MATERIALS CHEMISTRY</t>
+  </si>
+  <si>
+    <t>FOUNDATIONAL PROGRAMMING CONCEPTS &amp; DESIGN</t>
+  </si>
+  <si>
+    <t>DATA STRUCTURES AND ALGORITHMS</t>
+  </si>
+  <si>
+    <t>PYTHON-BASED COMPUTING: BUILDING A SENSOR SYSTEM</t>
+  </si>
+  <si>
+    <t>FORTRAN PROGRAMMING</t>
+  </si>
+  <si>
+    <t>PROGRAMMING CONCEPTS</t>
+  </si>
+  <si>
+    <t>DATA STRUCTURES</t>
+  </si>
+  <si>
+    <t>PROGRAMMING CHALLENGES I</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO THE LINUX OPERATING SYSTEM</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO DATA SCIENCE</t>
+  </si>
+  <si>
+    <t>INDUSTRY EXPLORATION I</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO INTERNAL COMBUSTION ENGINES</t>
+  </si>
+  <si>
+    <t>MANUFACTURING OPTIMIZATION WITH NETWORK MODELS</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO NUCLEAR ENGINEERING</t>
+  </si>
+  <si>
+    <t>PROGRAMMING CHALLENGES II</t>
+  </si>
+  <si>
+    <t>ADVANCED SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>DISCRETE MATHEMATICS</t>
+  </si>
+  <si>
+    <t>COMPUTER ORGANIZATION</t>
+  </si>
+  <si>
+    <t>SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>PROGRAMMING CHALLENGES III</t>
+  </si>
+  <si>
+    <t>COMPUTER SCIENCE HONORS THESIS</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO BIOINFORMATICS</t>
+  </si>
+  <si>
+    <t>ELEMENTS OF GAMES AND GAME DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>INFORMATION SECURITY AND PRIVACY</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO CRYPTOGRAPHY</t>
+  </si>
+  <si>
+    <t>HUMAN-CENTERED ROBOTICS</t>
+  </si>
+  <si>
+    <t>COMPUTER NETWORKS I</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO MACHINE LEARNING</t>
+  </si>
+  <si>
+    <t>GAME THEORY AND NETWORKS</t>
+  </si>
+  <si>
+    <t>MOBILE APPLICATION DEVELOPMENT</t>
+  </si>
+  <si>
+    <t>WEB APPLICATIONS</t>
+  </si>
+  <si>
+    <t>WEB PROGRAMMING</t>
+  </si>
+  <si>
+    <t>ADVANCED COMPUTER GRAPHICS</t>
+  </si>
+  <si>
+    <t>ADVANCED PROGRAMMING CONCEPTS USING JAVA</t>
+  </si>
+  <si>
+    <t>OPERATING SYSTEMS</t>
+  </si>
+  <si>
+    <t>COMPUTER GRAPHICS</t>
+  </si>
+  <si>
+    <t>PARALLEL COMPUTING FOR SCIENTISTS AND ENGINEERS</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO COMPUTER VISION</t>
+  </si>
+  <si>
+    <t>HUMAN-ROBOT INTERACTION</t>
+  </si>
+  <si>
+    <t>ROBOT ETHICS</t>
+  </si>
+  <si>
+    <t>COMPILER DESIGN</t>
+  </si>
+  <si>
+    <t>COMPUTER SIMULATION</t>
+  </si>
+  <si>
+    <t>USER INTERFACES</t>
+  </si>
+  <si>
+    <t>ELEMENTS OF COMPUTING SYSTEMS</t>
+  </si>
+  <si>
+    <t>ALGORITHMS</t>
+  </si>
+  <si>
+    <t>ARTIFICIAL INTELLIGENCE</t>
+  </si>
+  <si>
+    <t>DATA BASE MANAGEMENT</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF PROGRAMMING LANGUAGES</t>
+  </si>
+  <si>
+    <t>INDUSTRY EXPLORATION II</t>
+  </si>
+  <si>
+    <t>INTRODUCTION TO ELECTRICAL CIRCUITS  ELECTRONICS AND POWER</t>
   </si>
 </sst>
 </file>
@@ -392,63 +756,1870 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874335C0-A0B8-4EDC-A6E1-8A8B7B204BAD}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D59" sqref="D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2">
+        <v>241</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>121</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>122</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>125</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>101</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>220</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11">
+        <v>260</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>261</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>262</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>274</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>290</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16">
+        <v>295</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <v>303</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18">
+        <v>306</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>340</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>341</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>358</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>370</v>
+      </c>
+      <c r="C22">
+        <v>4.5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>390</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>395</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>403</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>404</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>406</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>410</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>422</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>423</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>425</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>432</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>436</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>437</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>440</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>441</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>442</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>443</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>444</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41">
+        <v>445</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>446</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>448</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>455</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>470</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>471</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>473</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>474</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>475</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>477</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>478</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>480</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53">
+        <v>490</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54">
+        <v>101</v>
+      </c>
+      <c r="C54">
+        <v>0.5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>201</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>151</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>491</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>492</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>281</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62">
+        <v>111</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63">
+        <v>112</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64">
+        <v>213</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65">
+        <v>225</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>307</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>201</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>212</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>300</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>301</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>315</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>324</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>330</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>340</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>351</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>361</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>381</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>391</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>408</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>412</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>414</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>416</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>417</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>430</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>435</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>436</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>441</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>451</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>453</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>461</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>466</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>467</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>469</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>471</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>475</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>481</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>485</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>486</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>487</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>488</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102">
+        <v>202</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <v>4.5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+      <c r="C104">
+        <v>4.5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
+    <sortCondition ref="A2:A104"/>
+    <sortCondition ref="B2:B104"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96711CF1-17B3-4BFA-8635-7A5E8085841A}">
+  <dimension ref="A1:B47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>120</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>140</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
